--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonderui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonderui/Hoop_Fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,10 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +500,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -517,25 +531,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="2" t="s">

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -511,18 +511,18 @@
     <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -553,49 +553,49 @@
         <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>17</v>

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -564,25 +564,25 @@
       <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="2" t="s">

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Player_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,18 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GP_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GP_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GP_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MIN_20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Final_Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp_Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GP_Pct_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Location_Aff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,6 +110,18 @@
   </si>
   <si>
     <t>Vs_Player_Aff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual_Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_REST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -511,26 +503,25 @@
     <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -550,64 +541,58 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>

--- a/playertable.xlsx
+++ b/playertable.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -588,10 +588,10 @@
       <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
